--- a/email_data.xlsx
+++ b/email_data.xlsx
@@ -16,23 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>Document Type</t>
-  </si>
-  <si>
-    <t>Email Template</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Email Fragment</t>
   </si>
   <si>
-    <t>HTML File path</t>
-  </si>
-  <si>
-    <t>D:\Learning\Python\PythonLearning\BOTOX_ONERegistrationQuickLookGuide.html</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -58,19 +46,55 @@
   </si>
   <si>
     <t>Unique Identifier Tag</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Allergan</t>
+  </si>
+  <si>
+    <t>D:\Learning\Python\PythonLearning\BOTOX ONE Registration Quick Look Guide.html</t>
+  </si>
+  <si>
+    <t>D:\Learning\Python\PythonLearning\images.zip</t>
+  </si>
+  <si>
+    <t>Images Path</t>
+  </si>
+  <si>
+    <t>Asset path</t>
+  </si>
+  <si>
+    <t>Reference Document › Data on File</t>
+  </si>
+  <si>
+    <t>HTML/Resource File path</t>
+  </si>
+  <si>
+    <t>Upload Type</t>
+  </si>
+  <si>
+    <t>Asset Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -104,11 +128,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -117,6 +154,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -420,74 +463,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" customWidth="1"/>
     <col min="3" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="K2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -495,8 +558,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -505,8 +569,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -515,8 +580,9 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -525,8 +591,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -535,8 +602,9 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -545,8 +613,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -555,8 +624,9 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -565,8 +635,9 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -575,8 +646,9 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -585,8 +657,9 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -595,8 +668,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -605,8 +679,9 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -615,8 +690,9 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -625,8 +701,9 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -635,8 +712,9 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -645,8 +723,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -655,8 +734,9 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -665,8 +745,9 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -675,8 +756,9 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -685,8 +767,9 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -695,8 +778,9 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -705,6 +789,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -725,12 +810,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>